--- a/data/PW014.xlsx
+++ b/data/PW014.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>Location</t>
   </si>
@@ -73,7 +73,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>01/30/2017</t>
+    <t>03/03/2017</t>
   </si>
   <si>
     <t>12:00 PM</t>
@@ -85,7 +85,7 @@
     <t>susan</t>
   </si>
   <si>
-    <t>sudharsan.kg+300@saggezza.com</t>
+    <t>sudharsan.kg@saggezza.com</t>
   </si>
   <si>
     <t>1234567890</t>
@@ -104,9 +104,6 @@
   </si>
   <si>
     <t>123</t>
-  </si>
-  <si>
-    <t>sudharsan.kg@saggezza.com</t>
   </si>
   <si>
     <t>sudharsan@27</t>
@@ -342,8 +339,8 @@
   </sheetPr>
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R9" activeCellId="0" sqref="R9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -468,17 +465,17 @@
         <v>28</v>
       </c>
       <c r="O2" s="7" t="str">
-        <f aca="false">TEXT(D2,"mmmm dd")</f>
-        <v>January 30</v>
+        <f aca="false">TEXT(D2,"mmmm d")</f>
+        <v>March 3</v>
       </c>
       <c r="P2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="R2" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
